--- a/sofaaudit/input/lookup.xlsx
+++ b/sofaaudit/input/lookup.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="621">
   <si>
     <t>Vendor Identifier</t>
   </si>
@@ -106,13 +106,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>0002_20120403_MOBZ_DZICROQUETTES</t>
-  </si>
-  <si>
     <t>Brazil</t>
-  </si>
-  <si>
-    <t>Reserva Nacional</t>
   </si>
   <si>
     <t>Dzi Croquettes</t>
@@ -2352,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -2397,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -2424,10 +2418,10 @@
         <v>16</v>
       </c>
       <c r="S1" s="20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="T1" s="20" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="12">
@@ -2453,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <v>41275</v>
+        <v>41640</v>
       </c>
       <c r="I2" s="10">
-        <v>41275</v>
+        <v>41671</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>20</v>
@@ -2498,13 +2492,13 @@
     </row>
     <row r="3" spans="1:24" ht="12">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" s="7">
         <v>0.2</v>
@@ -2519,28 +2513,28 @@
         <v>0</v>
       </c>
       <c r="H3" s="10">
-        <v>41275</v>
+        <v>41641</v>
       </c>
       <c r="I3" s="10">
-        <v>41275</v>
+        <v>41760</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="P3" s="6">
         <v>2.2000000000000002</v>
@@ -2564,13 +2558,13 @@
     </row>
     <row r="4" spans="1:24" ht="12">
       <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D4" s="7">
         <v>0.2</v>
@@ -2591,22 +2585,22 @@
         <v>41275</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P4" s="6">
         <v>2.2000000000000002</v>
@@ -2630,13 +2624,13 @@
     </row>
     <row r="5" spans="1:24" ht="12">
       <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="7">
         <v>0.2</v>
@@ -2657,22 +2651,22 @@
         <v>41275</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="P5" s="6">
         <v>2.2000000000000002</v>
@@ -2754,13 +2748,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -2771,7 +2765,7 @@
         <v>41275</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -2782,7 +2776,7 @@
         <v>41306</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -2793,7 +2787,7 @@
         <v>41334</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -2804,7 +2798,7 @@
         <v>41365</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -2815,7 +2809,7 @@
         <v>41395</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -2826,7 +2820,7 @@
         <v>41426</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -2837,7 +2831,7 @@
         <v>41456</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -2848,7 +2842,7 @@
         <v>41487</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -2859,7 +2853,7 @@
         <v>41518</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -2870,7 +2864,7 @@
         <v>41548</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -2881,7 +2875,7 @@
         <v>41579</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -2892,7 +2886,7 @@
         <v>41609</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -2903,7 +2897,7 @@
         <v>41640</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -2914,7 +2908,7 @@
         <v>41671</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -2925,7 +2919,7 @@
         <v>41699</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -2936,7 +2930,7 @@
         <v>41730</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -2947,7 +2941,7 @@
         <v>41760</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -2958,7 +2952,7 @@
         <v>41791</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -2969,7 +2963,7 @@
         <v>41821</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -2980,7 +2974,7 @@
         <v>41852</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -2991,7 +2985,7 @@
         <v>41883</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -3002,7 +2996,7 @@
         <v>41913</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -3013,7 +3007,7 @@
         <v>41944</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -3024,7 +3018,7 @@
         <v>41974</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -3035,7 +3029,7 @@
         <v>41275</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
@@ -3046,7 +3040,7 @@
         <v>41306</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
@@ -3057,7 +3051,7 @@
         <v>41334</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -3068,7 +3062,7 @@
         <v>41365</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
@@ -3079,7 +3073,7 @@
         <v>41395</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
@@ -3090,7 +3084,7 @@
         <v>41426</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
@@ -3101,7 +3095,7 @@
         <v>41456</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
@@ -3112,7 +3106,7 @@
         <v>41487</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -3123,7 +3117,7 @@
         <v>41518</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -3134,7 +3128,7 @@
         <v>41548</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -3145,7 +3139,7 @@
         <v>41579</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -3156,7 +3150,7 @@
         <v>41609</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -3167,7 +3161,7 @@
         <v>41640</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -3178,7 +3172,7 @@
         <v>41671</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -3189,7 +3183,7 @@
         <v>41699</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -3200,7 +3194,7 @@
         <v>41730</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -3211,7 +3205,7 @@
         <v>41760</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -3222,7 +3216,7 @@
         <v>41791</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -3233,7 +3227,7 @@
         <v>41821</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
@@ -3244,7 +3238,7 @@
         <v>41852</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
@@ -3255,7 +3249,7 @@
         <v>41883</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
@@ -3266,7 +3260,7 @@
         <v>41913</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
@@ -3277,7 +3271,7 @@
         <v>41944</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -3288,7 +3282,7 @@
         <v>41974</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
@@ -3299,7 +3293,7 @@
         <v>41275</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -3310,7 +3304,7 @@
         <v>41306</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
@@ -3321,7 +3315,7 @@
         <v>41334</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
@@ -3332,7 +3326,7 @@
         <v>41365</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
@@ -3343,7 +3337,7 @@
         <v>41395</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
@@ -3354,7 +3348,7 @@
         <v>41426</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
@@ -3365,7 +3359,7 @@
         <v>41456</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
@@ -3376,7 +3370,7 @@
         <v>41487</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -3387,7 +3381,7 @@
         <v>41518</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
@@ -3398,7 +3392,7 @@
         <v>41548</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
@@ -3409,7 +3403,7 @@
         <v>41579</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
@@ -3420,7 +3414,7 @@
         <v>41609</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
@@ -3431,7 +3425,7 @@
         <v>41640</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
@@ -3442,7 +3436,7 @@
         <v>41671</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
@@ -3453,7 +3447,7 @@
         <v>41699</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
@@ -3464,7 +3458,7 @@
         <v>41730</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
@@ -3475,7 +3469,7 @@
         <v>41760</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
@@ -3486,7 +3480,7 @@
         <v>41791</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
@@ -3497,7 +3491,7 @@
         <v>41821</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
@@ -3508,7 +3502,7 @@
         <v>41852</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
@@ -3519,7 +3513,7 @@
         <v>41883</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -3530,7 +3524,7 @@
         <v>41913</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1">
@@ -3541,7 +3535,7 @@
         <v>41944</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1">
@@ -3552,7 +3546,7 @@
         <v>41974</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
@@ -3563,7 +3557,7 @@
         <v>41275</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1">
@@ -3574,7 +3568,7 @@
         <v>41306</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1">
@@ -3585,7 +3579,7 @@
         <v>41334</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1">
@@ -3596,7 +3590,7 @@
         <v>41365</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1">
@@ -3607,7 +3601,7 @@
         <v>41395</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1">
@@ -3618,7 +3612,7 @@
         <v>41426</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1">
@@ -3629,7 +3623,7 @@
         <v>41456</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
@@ -3640,7 +3634,7 @@
         <v>41487</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1">
@@ -3651,7 +3645,7 @@
         <v>41518</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1">
@@ -3662,7 +3656,7 @@
         <v>41548</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1">
@@ -3673,7 +3667,7 @@
         <v>41579</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1">
@@ -3684,7 +3678,7 @@
         <v>41609</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -3695,7 +3689,7 @@
         <v>41640</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1">
@@ -3706,7 +3700,7 @@
         <v>41671</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1">
@@ -3717,7 +3711,7 @@
         <v>41699</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1">
@@ -3728,7 +3722,7 @@
         <v>41730</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1">
@@ -3739,7 +3733,7 @@
         <v>41760</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">
@@ -3750,7 +3744,7 @@
         <v>41791</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1">
@@ -3761,7 +3755,7 @@
         <v>41821</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1">
@@ -3772,7 +3766,7 @@
         <v>41852</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1">
@@ -3783,7 +3777,7 @@
         <v>41883</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1">
@@ -3794,7 +3788,7 @@
         <v>41913</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1">
@@ -3805,7 +3799,7 @@
         <v>41944</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">
@@ -3816,7 +3810,7 @@
         <v>41974</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">
@@ -3827,7 +3821,7 @@
         <v>41275</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1">
@@ -3838,7 +3832,7 @@
         <v>41306</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">
@@ -3849,7 +3843,7 @@
         <v>41334</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
@@ -3860,7 +3854,7 @@
         <v>41365</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">
@@ -3871,7 +3865,7 @@
         <v>41395</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">
@@ -3882,7 +3876,7 @@
         <v>41426</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">
@@ -3893,7 +3887,7 @@
         <v>41456</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
@@ -3904,7 +3898,7 @@
         <v>41487</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">
@@ -3915,7 +3909,7 @@
         <v>41518</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
@@ -3926,7 +3920,7 @@
         <v>41548</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">
@@ -3937,7 +3931,7 @@
         <v>41579</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1">
@@ -3948,7 +3942,7 @@
         <v>41609</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1">
@@ -3959,7 +3953,7 @@
         <v>41640</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1">
@@ -3970,7 +3964,7 @@
         <v>41671</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1">
@@ -3981,7 +3975,7 @@
         <v>41699</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
@@ -3992,7 +3986,7 @@
         <v>41730</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">
@@ -4003,7 +3997,7 @@
         <v>41760</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1">
@@ -4014,7 +4008,7 @@
         <v>41791</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1">
@@ -4025,7 +4019,7 @@
         <v>41821</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1">
@@ -4036,7 +4030,7 @@
         <v>41852</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1">
@@ -4047,7 +4041,7 @@
         <v>41883</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1">
@@ -4058,7 +4052,7 @@
         <v>41913</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1">
@@ -4069,7 +4063,7 @@
         <v>41944</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1">
@@ -4080,7 +4074,7 @@
         <v>41974</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1">
@@ -4091,7 +4085,7 @@
         <v>41275</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1">
@@ -4102,7 +4096,7 @@
         <v>41306</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1">
@@ -4113,7 +4107,7 @@
         <v>41334</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1">
@@ -4124,7 +4118,7 @@
         <v>41365</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1">
@@ -4135,7 +4129,7 @@
         <v>41395</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1">
@@ -4146,7 +4140,7 @@
         <v>41426</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1">
@@ -4157,7 +4151,7 @@
         <v>41456</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1">
@@ -4168,7 +4162,7 @@
         <v>41487</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1">
@@ -4179,7 +4173,7 @@
         <v>41518</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1">
@@ -4190,7 +4184,7 @@
         <v>41548</v>
       </c>
       <c r="C131" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1">
@@ -4201,7 +4195,7 @@
         <v>41579</v>
       </c>
       <c r="C132" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1">
@@ -4212,7 +4206,7 @@
         <v>41609</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1">
@@ -4223,7 +4217,7 @@
         <v>41640</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1">
@@ -4234,7 +4228,7 @@
         <v>41671</v>
       </c>
       <c r="C135" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1">
@@ -4245,7 +4239,7 @@
         <v>41699</v>
       </c>
       <c r="C136" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1">
@@ -4256,7 +4250,7 @@
         <v>41730</v>
       </c>
       <c r="C137" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1">
@@ -4267,7 +4261,7 @@
         <v>41760</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1">
@@ -4278,7 +4272,7 @@
         <v>41791</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1">
@@ -4289,7 +4283,7 @@
         <v>41821</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1">
@@ -4300,7 +4294,7 @@
         <v>41852</v>
       </c>
       <c r="C141" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1">
@@ -4311,7 +4305,7 @@
         <v>41883</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1">
@@ -4322,7 +4316,7 @@
         <v>41913</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1">
@@ -4333,7 +4327,7 @@
         <v>41944</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1">
@@ -4344,7 +4338,7 @@
         <v>41974</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1">
@@ -4355,7 +4349,7 @@
         <v>41275</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1">
@@ -4366,7 +4360,7 @@
         <v>41306</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1">
@@ -4377,7 +4371,7 @@
         <v>41334</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1">
@@ -4388,7 +4382,7 @@
         <v>41365</v>
       </c>
       <c r="C149" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1">
@@ -4399,7 +4393,7 @@
         <v>41395</v>
       </c>
       <c r="C150" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1">
@@ -4410,7 +4404,7 @@
         <v>41426</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1">
@@ -4421,7 +4415,7 @@
         <v>41456</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1">
@@ -4432,7 +4426,7 @@
         <v>41487</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1">
@@ -4443,7 +4437,7 @@
         <v>41518</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1">
@@ -4454,7 +4448,7 @@
         <v>41548</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1">
@@ -4465,7 +4459,7 @@
         <v>41579</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1">
@@ -4476,7 +4470,7 @@
         <v>41609</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1">
@@ -4487,7 +4481,7 @@
         <v>41640</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1">
@@ -4498,7 +4492,7 @@
         <v>41671</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1">
@@ -4509,7 +4503,7 @@
         <v>41699</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1">
@@ -4520,7 +4514,7 @@
         <v>41730</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1">
@@ -4531,7 +4525,7 @@
         <v>41760</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1">
@@ -4542,7 +4536,7 @@
         <v>41791</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1">
@@ -4553,7 +4547,7 @@
         <v>41821</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1">
@@ -4564,7 +4558,7 @@
         <v>41852</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1">
@@ -4575,7 +4569,7 @@
         <v>41883</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1">
@@ -4586,7 +4580,7 @@
         <v>41913</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1">
@@ -4597,7 +4591,7 @@
         <v>41944</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1">
@@ -4608,7 +4602,7 @@
         <v>41974</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1">
@@ -4619,7 +4613,7 @@
         <v>41275</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1">
@@ -4630,7 +4624,7 @@
         <v>41306</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1">
@@ -4641,7 +4635,7 @@
         <v>41334</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1">
@@ -4652,7 +4646,7 @@
         <v>41365</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1">
@@ -4663,7 +4657,7 @@
         <v>41395</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1">
@@ -4674,7 +4668,7 @@
         <v>41426</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1">
@@ -4685,7 +4679,7 @@
         <v>41456</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1">
@@ -4696,7 +4690,7 @@
         <v>41487</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1">
@@ -4707,7 +4701,7 @@
         <v>41518</v>
       </c>
       <c r="C178" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1">
@@ -4718,7 +4712,7 @@
         <v>41548</v>
       </c>
       <c r="C179" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1">
@@ -4729,7 +4723,7 @@
         <v>41579</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1">
@@ -4740,7 +4734,7 @@
         <v>41609</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1">
@@ -4751,7 +4745,7 @@
         <v>41640</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1">
@@ -4762,7 +4756,7 @@
         <v>41671</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1">
@@ -4773,7 +4767,7 @@
         <v>41699</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1">
@@ -4784,7 +4778,7 @@
         <v>41730</v>
       </c>
       <c r="C185" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1">
@@ -4795,7 +4789,7 @@
         <v>41760</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1">
@@ -4806,7 +4800,7 @@
         <v>41791</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1">
@@ -4817,7 +4811,7 @@
         <v>41821</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1">
@@ -4828,7 +4822,7 @@
         <v>41852</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1">
@@ -4839,7 +4833,7 @@
         <v>41883</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1">
@@ -4850,7 +4844,7 @@
         <v>41913</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1">
@@ -4861,7 +4855,7 @@
         <v>41944</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1">
@@ -4872,7 +4866,7 @@
         <v>41974</v>
       </c>
       <c r="C193" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1">
@@ -4883,7 +4877,7 @@
         <v>41275</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1">
@@ -4894,7 +4888,7 @@
         <v>41306</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1">
@@ -4905,7 +4899,7 @@
         <v>41334</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1">
@@ -4916,7 +4910,7 @@
         <v>41365</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1">
@@ -4927,7 +4921,7 @@
         <v>41395</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1">
@@ -4938,7 +4932,7 @@
         <v>41426</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1">
@@ -4949,7 +4943,7 @@
         <v>41456</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1">
@@ -4960,7 +4954,7 @@
         <v>41487</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1">
@@ -4971,7 +4965,7 @@
         <v>41518</v>
       </c>
       <c r="C202" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1">
@@ -4982,7 +4976,7 @@
         <v>41548</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1">
@@ -4993,7 +4987,7 @@
         <v>41579</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1">
@@ -5004,7 +4998,7 @@
         <v>41609</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1">
@@ -5015,7 +5009,7 @@
         <v>41640</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1">
@@ -5026,7 +5020,7 @@
         <v>41671</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1">
@@ -5037,7 +5031,7 @@
         <v>41699</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1">
@@ -5048,7 +5042,7 @@
         <v>41730</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1">
@@ -5059,7 +5053,7 @@
         <v>41760</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1">
@@ -5070,7 +5064,7 @@
         <v>41791</v>
       </c>
       <c r="C211" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1">
@@ -5081,7 +5075,7 @@
         <v>41821</v>
       </c>
       <c r="C212" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1">
@@ -5092,7 +5086,7 @@
         <v>41852</v>
       </c>
       <c r="C213" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1">
@@ -5103,7 +5097,7 @@
         <v>41883</v>
       </c>
       <c r="C214" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1">
@@ -5114,7 +5108,7 @@
         <v>41913</v>
       </c>
       <c r="C215" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1">
@@ -5125,7 +5119,7 @@
         <v>41944</v>
       </c>
       <c r="C216" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1">
@@ -5136,7 +5130,7 @@
         <v>41974</v>
       </c>
       <c r="C217" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1">
@@ -5147,7 +5141,7 @@
         <v>41275</v>
       </c>
       <c r="C218" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1">
@@ -5158,7 +5152,7 @@
         <v>41306</v>
       </c>
       <c r="C219" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1">
@@ -5169,7 +5163,7 @@
         <v>41334</v>
       </c>
       <c r="C220" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1">
@@ -5180,7 +5174,7 @@
         <v>41365</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1">
@@ -5191,7 +5185,7 @@
         <v>41395</v>
       </c>
       <c r="C222" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1">
@@ -5202,7 +5196,7 @@
         <v>41426</v>
       </c>
       <c r="C223" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1">
@@ -5213,7 +5207,7 @@
         <v>41456</v>
       </c>
       <c r="C224" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1">
@@ -5224,7 +5218,7 @@
         <v>41487</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1">
@@ -5235,7 +5229,7 @@
         <v>41518</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1">
@@ -5246,7 +5240,7 @@
         <v>41548</v>
       </c>
       <c r="C227" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1">
@@ -5257,7 +5251,7 @@
         <v>41579</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1">
@@ -5268,7 +5262,7 @@
         <v>41609</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1">
@@ -5279,7 +5273,7 @@
         <v>41640</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="15.75" customHeight="1">
@@ -5290,7 +5284,7 @@
         <v>41671</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="15.75" customHeight="1">
@@ -5301,7 +5295,7 @@
         <v>41699</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="15.75" customHeight="1">
@@ -5312,7 +5306,7 @@
         <v>41730</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="15.75" customHeight="1">
@@ -5323,7 +5317,7 @@
         <v>41760</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="15.75" customHeight="1">
@@ -5334,7 +5328,7 @@
         <v>41791</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="15.75" customHeight="1">
@@ -5345,7 +5339,7 @@
         <v>41821</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15.75" customHeight="1">
@@ -5356,7 +5350,7 @@
         <v>41852</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="15.75" customHeight="1">
@@ -5367,7 +5361,7 @@
         <v>41883</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="15.75" customHeight="1">
@@ -5378,7 +5372,7 @@
         <v>41913</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="15.75" customHeight="1">
@@ -5389,7 +5383,7 @@
         <v>41944</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="15.75" customHeight="1">
@@ -5400,7 +5394,7 @@
         <v>41974</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15.75" customHeight="1">
@@ -5411,7 +5405,7 @@
         <v>41275</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="15.75" customHeight="1">
@@ -5422,7 +5416,7 @@
         <v>41306</v>
       </c>
       <c r="C243" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="15.75" customHeight="1">
@@ -5433,7 +5427,7 @@
         <v>41334</v>
       </c>
       <c r="C244" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15.75" customHeight="1">
@@ -5444,7 +5438,7 @@
         <v>41365</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="15.75" customHeight="1">
@@ -5455,7 +5449,7 @@
         <v>41395</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="15.75" customHeight="1">
@@ -5466,7 +5460,7 @@
         <v>41426</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="15.75" customHeight="1">
@@ -5477,7 +5471,7 @@
         <v>41456</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="15.75" customHeight="1">
@@ -5488,7 +5482,7 @@
         <v>41487</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="15.75" customHeight="1">
@@ -5499,7 +5493,7 @@
         <v>41518</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="15.75" customHeight="1">
@@ -5510,7 +5504,7 @@
         <v>41548</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="15.75" customHeight="1">
@@ -5521,7 +5515,7 @@
         <v>41579</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="15.75" customHeight="1">
@@ -5532,7 +5526,7 @@
         <v>41609</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="15.75" customHeight="1">
@@ -5543,7 +5537,7 @@
         <v>41640</v>
       </c>
       <c r="C254" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="15.75" customHeight="1">
@@ -5554,7 +5548,7 @@
         <v>41671</v>
       </c>
       <c r="C255" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="15.75" customHeight="1">
@@ -5565,7 +5559,7 @@
         <v>41699</v>
       </c>
       <c r="C256" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="15.75" customHeight="1">
@@ -5576,7 +5570,7 @@
         <v>41730</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="15.75" customHeight="1">
@@ -5587,7 +5581,7 @@
         <v>41760</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="15.75" customHeight="1">
@@ -5598,7 +5592,7 @@
         <v>41791</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="15.75" customHeight="1">
@@ -5609,7 +5603,7 @@
         <v>41821</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="15.75" customHeight="1">
@@ -5620,7 +5614,7 @@
         <v>41852</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="15.75" customHeight="1">
@@ -5631,7 +5625,7 @@
         <v>41883</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="15.75" customHeight="1">
@@ -5642,7 +5636,7 @@
         <v>41913</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="15.75" customHeight="1">
@@ -5653,7 +5647,7 @@
         <v>41944</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15.75" customHeight="1">
@@ -5664,7 +5658,7 @@
         <v>41974</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15.75" customHeight="1">
@@ -5675,7 +5669,7 @@
         <v>41275</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="15.75" customHeight="1">
@@ -5686,7 +5680,7 @@
         <v>41306</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="15.75" customHeight="1">
@@ -5697,7 +5691,7 @@
         <v>41334</v>
       </c>
       <c r="C268" s="13" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="15.75" customHeight="1">
@@ -5708,7 +5702,7 @@
         <v>41365</v>
       </c>
       <c r="C269" s="13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15.75" customHeight="1">
@@ -5719,7 +5713,7 @@
         <v>41395</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="15.75" customHeight="1">
@@ -5730,7 +5724,7 @@
         <v>41426</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="15.75" customHeight="1">
@@ -5741,7 +5735,7 @@
         <v>41456</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="15.75" customHeight="1">
@@ -5752,7 +5746,7 @@
         <v>41487</v>
       </c>
       <c r="C273" s="13" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="15.75" customHeight="1">
@@ -5763,7 +5757,7 @@
         <v>41518</v>
       </c>
       <c r="C274" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="15.75" customHeight="1">
@@ -5774,7 +5768,7 @@
         <v>41548</v>
       </c>
       <c r="C275" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="15.75" customHeight="1">
@@ -5785,7 +5779,7 @@
         <v>41579</v>
       </c>
       <c r="C276" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="15.75" customHeight="1">
@@ -5796,7 +5790,7 @@
         <v>41609</v>
       </c>
       <c r="C277" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15.75" customHeight="1">
@@ -5807,7 +5801,7 @@
         <v>41640</v>
       </c>
       <c r="C278" s="13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15.75" customHeight="1">
@@ -5818,7 +5812,7 @@
         <v>41671</v>
       </c>
       <c r="C279" s="13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1">
@@ -5829,7 +5823,7 @@
         <v>41699</v>
       </c>
       <c r="C280" s="13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15.75" customHeight="1">
@@ -5840,7 +5834,7 @@
         <v>41730</v>
       </c>
       <c r="C281" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="15.75" customHeight="1">
@@ -5851,7 +5845,7 @@
         <v>41760</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="15.75" customHeight="1">
@@ -5862,7 +5856,7 @@
         <v>41791</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15.75" customHeight="1">
@@ -5873,7 +5867,7 @@
         <v>41821</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="15.75" customHeight="1">
@@ -5884,7 +5878,7 @@
         <v>41852</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="15.75" customHeight="1">
@@ -5895,7 +5889,7 @@
         <v>41883</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15.75" customHeight="1">
@@ -5906,7 +5900,7 @@
         <v>41913</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15.75" customHeight="1">
@@ -5917,7 +5911,7 @@
         <v>41944</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="15.75" customHeight="1">
@@ -5928,7 +5922,7 @@
         <v>41974</v>
       </c>
       <c r="C289" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="15.75" customHeight="1">
@@ -5939,7 +5933,7 @@
         <v>41275</v>
       </c>
       <c r="C290" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="15.75" customHeight="1">
@@ -5950,7 +5944,7 @@
         <v>41306</v>
       </c>
       <c r="C291" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="15.75" customHeight="1">
@@ -5961,7 +5955,7 @@
         <v>41334</v>
       </c>
       <c r="C292" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="15.75" customHeight="1">
@@ -5972,7 +5966,7 @@
         <v>41365</v>
       </c>
       <c r="C293" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="15.75" customHeight="1">
@@ -5983,7 +5977,7 @@
         <v>41395</v>
       </c>
       <c r="C294" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="15.75" customHeight="1">
@@ -5994,7 +5988,7 @@
         <v>41426</v>
       </c>
       <c r="C295" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="15.75" customHeight="1">
@@ -6005,7 +5999,7 @@
         <v>41456</v>
       </c>
       <c r="C296" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="15.75" customHeight="1">
@@ -6016,7 +6010,7 @@
         <v>41487</v>
       </c>
       <c r="C297" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="15.75" customHeight="1">
@@ -6027,7 +6021,7 @@
         <v>41518</v>
       </c>
       <c r="C298" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="15.75" customHeight="1">
@@ -6038,7 +6032,7 @@
         <v>41548</v>
       </c>
       <c r="C299" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="15.75" customHeight="1">
@@ -6049,7 +6043,7 @@
         <v>41579</v>
       </c>
       <c r="C300" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="15.75" customHeight="1">
@@ -6060,7 +6054,7 @@
         <v>41609</v>
       </c>
       <c r="C301" s="13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="15.75" customHeight="1">
@@ -6071,7 +6065,7 @@
         <v>41640</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="15.75" customHeight="1">
@@ -6082,7 +6076,7 @@
         <v>41671</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="15.75" customHeight="1">
@@ -6093,7 +6087,7 @@
         <v>41699</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="15.75" customHeight="1">
@@ -6104,7 +6098,7 @@
         <v>41730</v>
       </c>
       <c r="C305" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="15.75" customHeight="1">
@@ -6115,7 +6109,7 @@
         <v>41760</v>
       </c>
       <c r="C306" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="15.75" customHeight="1">
@@ -6126,7 +6120,7 @@
         <v>41791</v>
       </c>
       <c r="C307" s="13" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="15.75" customHeight="1">
@@ -6137,7 +6131,7 @@
         <v>41821</v>
       </c>
       <c r="C308" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="15.75" customHeight="1">
@@ -6148,7 +6142,7 @@
         <v>41852</v>
       </c>
       <c r="C309" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="15.75" customHeight="1">
@@ -6159,7 +6153,7 @@
         <v>41883</v>
       </c>
       <c r="C310" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="15.75" customHeight="1">
@@ -6170,7 +6164,7 @@
         <v>41913</v>
       </c>
       <c r="C311" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="15.75" customHeight="1">
@@ -6181,7 +6175,7 @@
         <v>41944</v>
       </c>
       <c r="C312" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="15.75" customHeight="1">
@@ -6192,7 +6186,7 @@
         <v>41974</v>
       </c>
       <c r="C313" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="15.75" customHeight="1">
@@ -6203,7 +6197,7 @@
         <v>41275</v>
       </c>
       <c r="C314" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="15.75" customHeight="1">
@@ -6214,7 +6208,7 @@
         <v>41306</v>
       </c>
       <c r="C315" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="15.75" customHeight="1">
@@ -6225,7 +6219,7 @@
         <v>41334</v>
       </c>
       <c r="C316" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="15.75" customHeight="1">
@@ -6236,7 +6230,7 @@
         <v>41365</v>
       </c>
       <c r="C317" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="15.75" customHeight="1">
@@ -6247,7 +6241,7 @@
         <v>41395</v>
       </c>
       <c r="C318" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="15.75" customHeight="1">
@@ -6258,7 +6252,7 @@
         <v>41426</v>
       </c>
       <c r="C319" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="15.75" customHeight="1">
@@ -6269,7 +6263,7 @@
         <v>41456</v>
       </c>
       <c r="C320" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="15.75" customHeight="1">
@@ -6280,7 +6274,7 @@
         <v>41487</v>
       </c>
       <c r="C321" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="15.75" customHeight="1">
@@ -6291,7 +6285,7 @@
         <v>41518</v>
       </c>
       <c r="C322" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="15.75" customHeight="1">
@@ -6302,7 +6296,7 @@
         <v>41548</v>
       </c>
       <c r="C323" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="15.75" customHeight="1">
@@ -6313,7 +6307,7 @@
         <v>41579</v>
       </c>
       <c r="C324" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="15.75" customHeight="1">
@@ -6324,7 +6318,7 @@
         <v>41609</v>
       </c>
       <c r="C325" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="15.75" customHeight="1">
@@ -6335,7 +6329,7 @@
         <v>41640</v>
       </c>
       <c r="C326" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="15.75" customHeight="1">
@@ -6346,7 +6340,7 @@
         <v>41671</v>
       </c>
       <c r="C327" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="15.75" customHeight="1">
@@ -6357,7 +6351,7 @@
         <v>41699</v>
       </c>
       <c r="C328" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="15.75" customHeight="1">
@@ -6368,7 +6362,7 @@
         <v>41730</v>
       </c>
       <c r="C329" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="15.75" customHeight="1">
@@ -6379,7 +6373,7 @@
         <v>41760</v>
       </c>
       <c r="C330" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="15.75" customHeight="1">
@@ -6390,7 +6384,7 @@
         <v>41791</v>
       </c>
       <c r="C331" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="15.75" customHeight="1">
@@ -6401,7 +6395,7 @@
         <v>41821</v>
       </c>
       <c r="C332" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="15.75" customHeight="1">
@@ -6412,7 +6406,7 @@
         <v>41852</v>
       </c>
       <c r="C333" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="15.75" customHeight="1">
@@ -6423,7 +6417,7 @@
         <v>41883</v>
       </c>
       <c r="C334" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="15.75" customHeight="1">
@@ -6434,7 +6428,7 @@
         <v>41913</v>
       </c>
       <c r="C335" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="15.75" customHeight="1">
@@ -6445,7 +6439,7 @@
         <v>41944</v>
       </c>
       <c r="C336" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="15.75" customHeight="1">
@@ -6456,7 +6450,7 @@
         <v>41974</v>
       </c>
       <c r="C337" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="15.75" customHeight="1">
@@ -6467,7 +6461,7 @@
         <v>41275</v>
       </c>
       <c r="C338" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="15.75" customHeight="1">
@@ -6478,7 +6472,7 @@
         <v>41306</v>
       </c>
       <c r="C339" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="15.75" customHeight="1">
@@ -6489,7 +6483,7 @@
         <v>41334</v>
       </c>
       <c r="C340" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="15.75" customHeight="1">
@@ -6500,7 +6494,7 @@
         <v>41365</v>
       </c>
       <c r="C341" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="15.75" customHeight="1">
@@ -6511,7 +6505,7 @@
         <v>41395</v>
       </c>
       <c r="C342" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="15.75" customHeight="1">
@@ -6522,7 +6516,7 @@
         <v>41426</v>
       </c>
       <c r="C343" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="15.75" customHeight="1">
@@ -6533,7 +6527,7 @@
         <v>41456</v>
       </c>
       <c r="C344" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="15.75" customHeight="1">
@@ -6544,7 +6538,7 @@
         <v>41487</v>
       </c>
       <c r="C345" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="15.75" customHeight="1">
@@ -6555,7 +6549,7 @@
         <v>41518</v>
       </c>
       <c r="C346" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="15.75" customHeight="1">
@@ -6566,7 +6560,7 @@
         <v>41548</v>
       </c>
       <c r="C347" s="13" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="15.75" customHeight="1">
@@ -6577,7 +6571,7 @@
         <v>41579</v>
       </c>
       <c r="C348" s="13" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="15.75" customHeight="1">
@@ -6588,7 +6582,7 @@
         <v>41609</v>
       </c>
       <c r="C349" s="13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="15.75" customHeight="1">
@@ -6599,7 +6593,7 @@
         <v>41640</v>
       </c>
       <c r="C350" s="13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="15.75" customHeight="1">
@@ -6610,7 +6604,7 @@
         <v>41671</v>
       </c>
       <c r="C351" s="13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="15.75" customHeight="1">
@@ -6621,7 +6615,7 @@
         <v>41699</v>
       </c>
       <c r="C352" s="13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="15.75" customHeight="1">
@@ -6632,7 +6626,7 @@
         <v>41730</v>
       </c>
       <c r="C353" s="13" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="15.75" customHeight="1">
@@ -6643,7 +6637,7 @@
         <v>41760</v>
       </c>
       <c r="C354" s="13" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="15.75" customHeight="1">
@@ -6654,7 +6648,7 @@
         <v>41791</v>
       </c>
       <c r="C355" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="15.75" customHeight="1">
@@ -6665,7 +6659,7 @@
         <v>41821</v>
       </c>
       <c r="C356" s="13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="15.75" customHeight="1">
@@ -6676,7 +6670,7 @@
         <v>41852</v>
       </c>
       <c r="C357" s="13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="15.75" customHeight="1">
@@ -6687,7 +6681,7 @@
         <v>41883</v>
       </c>
       <c r="C358" s="13" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="15.75" customHeight="1">
@@ -6698,7 +6692,7 @@
         <v>41913</v>
       </c>
       <c r="C359" s="13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="15.75" customHeight="1">
@@ -6709,7 +6703,7 @@
         <v>41944</v>
       </c>
       <c r="C360" s="13" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="15.75" customHeight="1">
@@ -6720,7 +6714,7 @@
         <v>41974</v>
       </c>
       <c r="C361" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="15.75" customHeight="1">
@@ -6731,7 +6725,7 @@
         <v>41275</v>
       </c>
       <c r="C362" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="15.75" customHeight="1">
@@ -6742,7 +6736,7 @@
         <v>41306</v>
       </c>
       <c r="C363" s="13" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="15.75" customHeight="1">
@@ -6753,7 +6747,7 @@
         <v>41334</v>
       </c>
       <c r="C364" s="13" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="15.75" customHeight="1">
@@ -6764,7 +6758,7 @@
         <v>41365</v>
       </c>
       <c r="C365" s="13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="15.75" customHeight="1">
@@ -6775,7 +6769,7 @@
         <v>41395</v>
       </c>
       <c r="C366" s="13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="15.75" customHeight="1">
@@ -6786,7 +6780,7 @@
         <v>41426</v>
       </c>
       <c r="C367" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="15.75" customHeight="1">
@@ -6797,7 +6791,7 @@
         <v>41456</v>
       </c>
       <c r="C368" s="13" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="15.75" customHeight="1">
@@ -6808,7 +6802,7 @@
         <v>41487</v>
       </c>
       <c r="C369" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="15.75" customHeight="1">
@@ -6819,7 +6813,7 @@
         <v>41518</v>
       </c>
       <c r="C370" s="13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="15.75" customHeight="1">
@@ -6830,7 +6824,7 @@
         <v>41548</v>
       </c>
       <c r="C371" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="15.75" customHeight="1">
@@ -6841,7 +6835,7 @@
         <v>41579</v>
       </c>
       <c r="C372" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="15.75" customHeight="1">
@@ -6852,7 +6846,7 @@
         <v>41609</v>
       </c>
       <c r="C373" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="15.75" customHeight="1">
@@ -6863,7 +6857,7 @@
         <v>41640</v>
       </c>
       <c r="C374" s="13" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="15.75" customHeight="1">
@@ -6874,7 +6868,7 @@
         <v>41671</v>
       </c>
       <c r="C375" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="15.75" customHeight="1">
@@ -6885,7 +6879,7 @@
         <v>41699</v>
       </c>
       <c r="C376" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="15.75" customHeight="1">
@@ -6896,7 +6890,7 @@
         <v>41730</v>
       </c>
       <c r="C377" s="13" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="15.75" customHeight="1">
@@ -6907,7 +6901,7 @@
         <v>41760</v>
       </c>
       <c r="C378" s="13" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="15.75" customHeight="1">
@@ -6918,7 +6912,7 @@
         <v>41791</v>
       </c>
       <c r="C379" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="15.75" customHeight="1">
@@ -6929,7 +6923,7 @@
         <v>41821</v>
       </c>
       <c r="C380" s="13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="15.75" customHeight="1">
@@ -6940,7 +6934,7 @@
         <v>41852</v>
       </c>
       <c r="C381" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="15.75" customHeight="1">
@@ -6951,7 +6945,7 @@
         <v>41883</v>
       </c>
       <c r="C382" s="13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="15.75" customHeight="1">
@@ -6962,7 +6956,7 @@
         <v>41913</v>
       </c>
       <c r="C383" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="15.75" customHeight="1">
@@ -6973,7 +6967,7 @@
         <v>41944</v>
       </c>
       <c r="C384" s="13" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="15.75" customHeight="1">
@@ -6984,7 +6978,7 @@
         <v>41974</v>
       </c>
       <c r="C385" s="13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="15.75" customHeight="1">
@@ -6995,7 +6989,7 @@
         <v>41640</v>
       </c>
       <c r="C386" s="13" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="15.75" customHeight="1">
@@ -7006,7 +7000,7 @@
         <v>41671</v>
       </c>
       <c r="C387" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="15.75" customHeight="1">
@@ -7017,7 +7011,7 @@
         <v>41699</v>
       </c>
       <c r="C388" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="15.75" customHeight="1">
@@ -7028,7 +7022,7 @@
         <v>41730</v>
       </c>
       <c r="C389" s="13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="15.75" customHeight="1">
@@ -7039,7 +7033,7 @@
         <v>41760</v>
       </c>
       <c r="C390" s="13" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="15.75" customHeight="1">
@@ -7050,7 +7044,7 @@
         <v>41791</v>
       </c>
       <c r="C391" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="392" spans="1:3" ht="15.75" customHeight="1">
@@ -7061,7 +7055,7 @@
         <v>41821</v>
       </c>
       <c r="C392" s="13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="15.75" customHeight="1">
@@ -7072,7 +7066,7 @@
         <v>41852</v>
       </c>
       <c r="C393" s="13" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="15.75" customHeight="1">
@@ -7083,7 +7077,7 @@
         <v>41883</v>
       </c>
       <c r="C394" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="15.75" customHeight="1">
@@ -7094,7 +7088,7 @@
         <v>41913</v>
       </c>
       <c r="C395" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="15.75" customHeight="1">
@@ -7105,7 +7099,7 @@
         <v>41944</v>
       </c>
       <c r="C396" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="15.75" customHeight="1">
@@ -7116,7 +7110,7 @@
         <v>41974</v>
       </c>
       <c r="C397" s="19" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7193,674 +7187,674 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="13" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
       <c r="A17" s="13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="13" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
       <c r="A19" s="13" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" s="13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" s="13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" s="13" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" s="13" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" s="13" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" s="13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" s="13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="13" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="13" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="13" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="13" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="13" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="13" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
       <c r="A49" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
       <c r="A50" s="13" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
       <c r="A51" s="13" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1">
       <c r="A52" s="13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1">
       <c r="A53" s="13" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1">
       <c r="A54" s="13" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1">
       <c r="A55" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1">
       <c r="A56" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1">
       <c r="A57" s="13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1">
       <c r="A58" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1">
       <c r="A59" s="13" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1">
       <c r="A61" s="13" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1">
       <c r="A62" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1">
       <c r="A63" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1">
       <c r="A64" s="13" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1">
       <c r="A65" s="13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1">
       <c r="A66" s="13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1">
       <c r="A67" s="13" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1">
       <c r="A68" s="13" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1">
       <c r="A69" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1">
       <c r="A70" s="13" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1">
       <c r="A71" s="13" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1">
       <c r="A72" s="13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1">
       <c r="A73" s="13" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1">
       <c r="A74" s="13" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1">
       <c r="A75" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1">
       <c r="A76" s="13" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1">
       <c r="A77" s="13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1">
       <c r="A78" s="13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1">
       <c r="A79" s="13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1">
       <c r="A80" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1">
       <c r="A81" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1">
       <c r="A82" s="13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1">
       <c r="A83" s="13" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
